--- a/Modules/R&F/R&F_BOM.xlsx
+++ b/Modules/R&F/R&F_BOM.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\R&amp;F\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAFD1E2-0849-49B7-BF7F-5FA9BAA0F97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="975" windowWidth="36675" windowHeight="17100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R&amp;F" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -320,9 +339,6 @@
   </si>
   <si>
     <t>M2 Standoff</t>
-  </si>
-  <si>
-    <t>* Do not use the included washer.</t>
   </si>
   <si>
     <t>Jack Nut</t>
@@ -356,11 +372,14 @@
       <t>*</t>
     </r>
   </si>
+  <si>
+    <t>* Do not use the included washer. Tighten very gently so the PCB doesn't get scratched.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -962,14 +981,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1007,7 +1029,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1079,7 +1101,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1252,11 +1274,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1369,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1578,13 +1600,13 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>71</v>
@@ -1664,7 +1686,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,7 +1768,7 @@
         <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>81</v>
@@ -1763,7 +1785,7 @@
         <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>83</v>
@@ -1777,7 +1799,7 @@
         <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>87</v>
@@ -1810,36 +1832,36 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="F6" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F15" r:id="rId13"/>
-    <hyperlink ref="F14" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F30" r:id="rId18"/>
-    <hyperlink ref="F23" r:id="rId19"/>
-    <hyperlink ref="F24" r:id="rId20"/>
-    <hyperlink ref="F25" r:id="rId21"/>
-    <hyperlink ref="F27" r:id="rId22"/>
-    <hyperlink ref="F28" r:id="rId23"/>
-    <hyperlink ref="F20" r:id="rId24"/>
-    <hyperlink ref="F29" r:id="rId25"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>

--- a/Modules/R&F/R&F_BOM.xlsx
+++ b/Modules/R&F/R&F_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\R&amp;F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAFD1E2-0849-49B7-BF7F-5FA9BAA0F97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9823637E-7A52-4507-8557-912FE185D19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
   <si>
     <t>Qty</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>* Do not use the included washer. Tighten very gently so the PCB doesn't get scratched.</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1281,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,6 +1670,9 @@
       </c>
       <c r="E19" t="s">
         <v>35</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1862,8 +1868,9 @@
     <hyperlink ref="F28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="F20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="F29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F19" r:id="rId26" xr:uid="{8471C66D-2803-4E39-A4C9-56382FB4FA7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/Modules/R&F/R&F_BOM.xlsx
+++ b/Modules/R&F/R&F_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\R&amp;F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9823637E-7A52-4507-8557-912FE185D19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9DE57C-AAC5-4A65-B1CC-9CD4FAFFB78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <t>Qty</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1284,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,6 +1713,9 @@
       </c>
       <c r="E21" t="s">
         <v>35</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1869,8 +1875,9 @@
     <hyperlink ref="F20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="F29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="F19" r:id="rId26" xr:uid="{8471C66D-2803-4E39-A4C9-56382FB4FA7C}"/>
+    <hyperlink ref="F21" r:id="rId27" xr:uid="{6ABC6086-4872-4A5E-A074-AF133E043F03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Modules/R&F/R&F_BOM.xlsx
+++ b/Modules/R&F/R&F_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\R&amp;F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9DE57C-AAC5-4A65-B1CC-9CD4FAFFB78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0203C1BE-A42E-4CEE-A6A8-9FF839F7D65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>Qty</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>Potentiometer Nut</t>
-  </si>
-  <si>
-    <t>https://www.thonk.co.uk/shop/alpha-nuts-washers/</t>
   </si>
   <si>
     <t>Black D-Shaft Line</t>
@@ -380,6 +377,12 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/black-nuts-washers/</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1287,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1378,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,13 +1609,13 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>71</v>
@@ -1643,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
         <v>73</v>
@@ -1675,7 +1678,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1695,7 +1698,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,7 +1718,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,16 +1726,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1740,16 +1743,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
         <v>95</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>96</v>
       </c>
-      <c r="E24" t="s">
-        <v>97</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,16 +1760,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1780,7 +1783,7 @@
         <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>81</v>
@@ -1797,7 +1800,7 @@
         <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>83</v>
@@ -1811,13 +1814,13 @@
         <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
         <v>87</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
         <v>85</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1873,9 +1876,9 @@
     <hyperlink ref="F27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="F28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="F20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F19" r:id="rId26" xr:uid="{8471C66D-2803-4E39-A4C9-56382FB4FA7C}"/>
-    <hyperlink ref="F21" r:id="rId27" xr:uid="{6ABC6086-4872-4A5E-A074-AF133E043F03}"/>
+    <hyperlink ref="F19" r:id="rId25" xr:uid="{8471C66D-2803-4E39-A4C9-56382FB4FA7C}"/>
+    <hyperlink ref="F21" r:id="rId26" xr:uid="{6ABC6086-4872-4A5E-A074-AF133E043F03}"/>
+    <hyperlink ref="F29" r:id="rId27" xr:uid="{C76BC33E-D2FF-4E5D-9780-3548B004A32B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>

--- a/Modules/R&F/R&F_BOM.xlsx
+++ b/Modules/R&F/R&F_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\R&amp;F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0203C1BE-A42E-4CEE-A6A8-9FF839F7D65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDE00B2-4355-4440-A94D-263BC54B2A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,34 +152,13 @@
     <t>L-937EGW</t>
   </si>
   <si>
-    <t>R-W4</t>
-  </si>
-  <si>
     <t>Resistor THT</t>
   </si>
   <si>
-    <t>C-5mm</t>
-  </si>
-  <si>
-    <t>C-5mm 11x7.2mm</t>
-  </si>
-  <si>
-    <t>E2.5-6.3</t>
-  </si>
-  <si>
     <t>DO-41</t>
   </si>
   <si>
     <t>DO-35</t>
-  </si>
-  <si>
-    <t>Capacitor Polarized THT</t>
-  </si>
-  <si>
-    <t>Capacitor Ceramic THT</t>
-  </si>
-  <si>
-    <t>Capacitor Film THT</t>
   </si>
   <si>
     <t>DIP-14</t>
@@ -384,12 +363,33 @@
   <si>
     <t>https://www.thonk.co.uk/shop/black-nuts-washers/</t>
   </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <t>Film Capacitor THT</t>
+  </si>
+  <si>
+    <t>C-P5mm 11x7.2mm</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,13 +523,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,21 +916,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1287,7 +1279,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,25 +1293,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1329,16 +1321,16 @@
         <v>330</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1349,16 +1341,16 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1369,16 +1361,16 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>105</v>
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1389,16 +1381,16 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1408,17 +1400,17 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
+      <c r="C6" t="s">
+        <v>109</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>63</v>
+        <v>110</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1428,17 +1420,17 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
+      <c r="C7" t="s">
+        <v>109</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>62</v>
+        <v>110</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1448,17 +1440,17 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
+      <c r="C8" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>64</v>
+        <v>107</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,16 +1461,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>111</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,16 +1481,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1509,16 +1501,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1526,19 +1518,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1546,19 +1538,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1569,16 +1561,16 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1589,16 +1581,16 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>69</v>
+        <v>45</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1609,16 +1601,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,14 +1623,14 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>72</v>
+      <c r="F17" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,19 +1638,19 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,10 +1658,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1677,8 +1669,8 @@
       <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>108</v>
+      <c r="F19" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,19 +1678,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>104</v>
+      <c r="F20" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,10 +1698,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -1717,8 +1709,8 @@
       <c r="E21" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>109</v>
+      <c r="F21" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,16 +1735,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1760,16 +1752,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,16 +1769,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1794,16 +1786,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,16 +1803,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>111</v>
+        <v>80</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1828,26 +1820,26 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>59</v>
+      <c r="B32" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>107</v>
+      <c r="B34" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Modules/R&F/R&F_BOM.xlsx
+++ b/Modules/R&F/R&F_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\R&amp;F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDE00B2-4355-4440-A94D-263BC54B2A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5967B8E3-8B00-4FBF-AA2A-2C12E8B69B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R&amp;F" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
   <si>
     <t>Qty</t>
   </si>
@@ -83,18 +83,9 @@
     <t>1N4148</t>
   </si>
   <si>
-    <t>D3, D4, D5, D6</t>
-  </si>
-  <si>
     <t>J_A1, J_A2, J_A3, J_A4</t>
   </si>
   <si>
-    <t>J_B1, J_B2, J_B3, J_B4</t>
-  </si>
-  <si>
-    <t>LD_LED1, LD_LED2</t>
-  </si>
-  <si>
     <t>A1M</t>
   </si>
   <si>
@@ -131,12 +122,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>J_IN1, J_IN2, J_OUT1, J_OUT2</t>
-  </si>
-  <si>
-    <t>P_FALL1, P_FALL2, P_RISE1, P_RISE2</t>
-  </si>
-  <si>
     <t>PWR</t>
   </si>
   <si>
@@ -191,48 +176,18 @@
     <t>Switching Diode</t>
   </si>
   <si>
-    <t>Parts in itallic are on the front PCB!</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
     <t>https://www.aliexpress.com/item/1005002670881002.html</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/cm-100/mlcc-tht-capacitors/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/mks2-10u_50v/tht-film-capacitors/wima/mks2b051001n00kssd/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4148-dio/tht-universal-diodes/diotec-semiconductor/1n4148/</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/1005003256812123.html</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/tl072ip/tht-operational-amplifiers/texas-instruments/</t>
-  </si>
-  <si>
     <t>https://www.thonk.co.uk/shop/alpha-9mm-pots-dshaft/</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/l-937egw/tht-leds-3mm/kingbright-electronic/</t>
-  </si>
-  <si>
     <t>PJ398SM</t>
   </si>
   <si>
@@ -352,12 +307,6 @@
     <t>* Do not use the included washer. Tighten very gently so the PCB doesn't get scratched.</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
-  </si>
-  <si>
     <t>Thonkiconn</t>
   </si>
   <si>
@@ -383,13 +332,417 @@
   </si>
   <si>
     <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Avalon Harmonics R&amp;F</t>
+  </si>
+  <si>
+    <t>Alt Link</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cm-100/mlcc-tht-capacitors/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/mks2-10u_50v/tht-film-capacitors/wima/mks2b051001n00kssd/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4148-dio/tht-universal-diodes/diotec-semiconductor/1n4148/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/tl072ip/tht-operational-amplifiers/texas-instruments/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/l-937egw/tht-leds-3mm/kingbright-electronic/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p044/73P0032/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p046/73P0034/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p049/73P0037/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p054/73P0042/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/icvt-8p/standard-dip-sockets/connfly/ds1009-08at1nx/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/icvt-14p/standard-dip-sockets/connfly/ds1009-14at1nx-0a2/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl262-3sg/pin-headers/connfly/ds1023-1-3s21/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Parts  with underline are on the front PCB!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_FALL1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_FALL2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P_RISE1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_RISE2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD_LED1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD_LED2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B4</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,15 +894,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -573,6 +917,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -916,9 +1276,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -927,9 +1287,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1276,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,587 +1654,683 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>330</v>
       </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
       <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
       <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
       <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D18" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F19" r:id="rId25" xr:uid="{8471C66D-2803-4E39-A4C9-56382FB4FA7C}"/>
-    <hyperlink ref="F21" r:id="rId26" xr:uid="{6ABC6086-4872-4A5E-A074-AF133E043F03}"/>
-    <hyperlink ref="F29" r:id="rId27" xr:uid="{C76BC33E-D2FF-4E5D-9780-3548B004A32B}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J21" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F20" r:id="rId25" xr:uid="{8471C66D-2803-4E39-A4C9-56382FB4FA7C}"/>
+    <hyperlink ref="F22" r:id="rId26" xr:uid="{6ABC6086-4872-4A5E-A074-AF133E043F03}"/>
+    <hyperlink ref="F30" r:id="rId27" xr:uid="{C76BC33E-D2FF-4E5D-9780-3548B004A32B}"/>
+    <hyperlink ref="F3" r:id="rId28" xr:uid="{D32AE53D-E2B3-48F1-B6C6-43204CF383C5}"/>
+    <hyperlink ref="F4" r:id="rId29" xr:uid="{CF7DABB6-D4E6-49CF-B3FA-A005A6BD11BC}"/>
+    <hyperlink ref="F5" r:id="rId30" xr:uid="{CE44BAE4-3B76-4E88-97FB-5EDE721DC42B}"/>
+    <hyperlink ref="F6" r:id="rId31" xr:uid="{25B7BE58-63EE-44A3-8A54-70E0E6B9BB1A}"/>
+    <hyperlink ref="F14" r:id="rId32" xr:uid="{CC16DED0-66A0-4B61-B33C-ECC8193009C5}"/>
+    <hyperlink ref="F13" r:id="rId33" xr:uid="{0B2FCDBA-DABE-46E2-9BBB-F7F143984348}"/>
+    <hyperlink ref="F21" r:id="rId34" xr:uid="{9F101393-BB5E-4BAC-A9DB-544B4D0A8174}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Modules/R&F/R&F_BOM.xlsx
+++ b/Modules/R&F/R&F_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\R&amp;F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5967B8E3-8B00-4FBF-AA2A-2C12E8B69B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C103D3-E4FC-4399-99EC-D6B8C63CFDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="R&amp;F" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,9 +131,6 @@
     <t>LED Red/Green</t>
   </si>
   <si>
-    <t>LED 3mm Flat Bicolor</t>
-  </si>
-  <si>
     <t>L-937EGW</t>
   </si>
   <si>
@@ -736,6 +733,9 @@
       </rPr>
       <t>J_B4</t>
     </r>
+  </si>
+  <si>
+    <t>LED 3mm Dome Bicolor</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1278,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1291,7 +1291,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1641,7 +1640,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1655,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1676,11 +1675,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1691,19 +1690,19 @@
         <v>330</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1714,19 +1713,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1737,19 +1736,19 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1760,19 +1759,19 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1783,19 +1782,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1806,19 +1805,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1829,19 +1828,19 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1852,19 +1851,19 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1875,19 +1874,19 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1898,19 +1897,19 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>117</v>
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1918,22 +1917,22 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1941,22 +1940,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1967,19 +1966,19 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1990,19 +1989,19 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2013,19 +2012,19 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2033,22 +2032,22 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2056,22 +2055,22 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="J19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2079,10 +2078,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -2091,10 +2090,10 @@
         <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2102,22 +2101,22 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>121</v>
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2125,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
@@ -2137,10 +2136,10 @@
         <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2148,19 +2147,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>68</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="J24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2168,19 +2167,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2188,19 +2187,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="J26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2208,19 +2207,19 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2228,19 +2227,19 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2248,19 +2247,19 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2268,29 +2267,29 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="J31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
